--- a/프로젝트VS테이블.xlsx
+++ b/프로젝트VS테이블.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\90.WORKSPACE\20251027\충청남도교육청기록원RFID장비도입\10.프로젝트문서\10.ME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\90.Workspaces\202510\RFIDMonitoringSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07547797-604C-452F-AB79-DD2946C9969B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF671CF-F0FA-4F0D-A54F-93A744CB6BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="프로그램목록" sheetId="1" r:id="rId1"/>
+    <sheet name="프로그램구성도" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -488,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -592,6 +593,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -609,18 +616,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -644,22 +639,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="35" name="그룹 34">
+        <xdr:cNvPr id="2" name="그룹 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAE50EE0-6B5B-E9A2-7890-34D9B26FD4B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75026F5C-A754-4CBD-B019-6F0FB231325C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -667,18 +662,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2095500" y="6419850"/>
-          <a:ext cx="9277350" cy="3590925"/>
+          <a:off x="762000" y="381000"/>
+          <a:ext cx="7877175" cy="3590925"/>
           <a:chOff x="2095500" y="6515100"/>
           <a:chExt cx="9277350" cy="3590925"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="34" name="그룹 33">
+          <xdr:cNvPr id="3" name="그룹 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5FF7919-7ACB-8906-230E-4EB4A9C55859}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{140560C4-C8D8-8BC5-05A3-24ADB08E15BE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -694,16 +689,16 @@
         </xdr:grpSpPr>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="13" name="직선 화살표 연결선 12">
+            <xdr:cNvPr id="6" name="직선 화살표 연결선 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DF5F0DB-0B8F-A859-F74A-D6D7C8F04757}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C3840D9-A6D5-1479-55F7-DD9DAA2E6B70}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
-              <a:stCxn id="9" idx="3"/>
-              <a:endCxn id="11" idx="1"/>
+              <a:stCxn id="23" idx="3"/>
+              <a:endCxn id="24" idx="1"/>
             </xdr:cNvCxnSpPr>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -736,16 +731,16 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="15" name="직선 화살표 연결선 14">
+            <xdr:cNvPr id="7" name="직선 화살표 연결선 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6210BCB0-F764-A77C-7762-8CDC2BB7B921}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41748691-28D3-414E-E3C6-34C00F413F40}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
-              <a:stCxn id="9" idx="0"/>
-              <a:endCxn id="4" idx="2"/>
+              <a:stCxn id="23" idx="0"/>
+              <a:endCxn id="22" idx="2"/>
             </xdr:cNvCxnSpPr>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -778,15 +773,15 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="27" name="직선 화살표 연결선 26">
+            <xdr:cNvPr id="8" name="직선 화살표 연결선 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FAF7A0F-2E3F-6EC0-1B75-170B4DEBC01E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B50ED7D9-7D26-B2FE-8E0D-2317302A0E58}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
-              <a:stCxn id="4" idx="3"/>
+              <a:stCxn id="22" idx="3"/>
               <a:endCxn id="25" idx="1"/>
             </xdr:cNvCxnSpPr>
           </xdr:nvCxnSpPr>
@@ -820,10 +815,10 @@
         </xdr:cxnSp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="33" name="그룹 32">
+            <xdr:cNvPr id="9" name="그룹 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2333370-225B-5A0C-1370-E8CDC0BE3916}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{427A73C7-19B0-AB2B-1C00-6A7B1198AC6C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -839,10 +834,10 @@
           </xdr:grpSpPr>
           <xdr:grpSp>
             <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="31" name="그룹 30">
+              <xdr:cNvPr id="16" name="그룹 15">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{495ACEB1-A656-3513-A76B-410FEBAE56E2}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D9F7A07-9F93-32CA-E69C-43AF88693D82}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -858,10 +853,10 @@
             </xdr:grpSpPr>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="4" name="직사각형 3">
+                <xdr:cNvPr id="22" name="직사각형 21">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{707760F1-171D-49EB-8197-47BA8A848841}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C17F1A4A-522B-322C-CA01-6482F0936032}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -905,10 +900,10 @@
             </xdr:sp>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="9" name="직사각형 8">
+                <xdr:cNvPr id="23" name="직사각형 22">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A0D24A2-F833-418D-8C92-475E4923EB52}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33FD0CF4-29FB-A19D-A7B6-138BE4C6D00E}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -1045,10 +1040,10 @@
             </xdr:sp>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="11" name="직사각형 10">
+                <xdr:cNvPr id="24" name="직사각형 23">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD568561-ADE8-4179-961F-7433747A33F1}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{285BBED0-30C4-3432-5F02-5293FA781353}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -1160,7 +1155,7 @@
                 <xdr:cNvPr id="25" name="직사각형 24">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{962719DD-2DB8-4960-A115-D2AE00ABFB35}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9262EA75-C9FD-8DF2-81FD-C0165D6DDB8B}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -1264,10 +1259,10 @@
             </xdr:sp>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="3" name="직사각형 2">
+                <xdr:cNvPr id="26" name="직사각형 25">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9418F597-5FF4-4E59-814E-5E93E19F609D}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A129143-942F-C849-3879-50F838216763}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -1371,10 +1366,10 @@
             </xdr:sp>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="10" name="직사각형 9">
+                <xdr:cNvPr id="27" name="직사각형 26">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FB59439-AEB5-18A9-52AC-6FA5FC6912D5}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63A1F8FF-EE6F-37A9-509F-B67C40E89E56}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -1418,10 +1413,10 @@
             </xdr:sp>
             <xdr:pic>
               <xdr:nvPicPr>
-                <xdr:cNvPr id="7" name="그래픽 1" descr="데이터베이스 단색으로 채워진">
+                <xdr:cNvPr id="28" name="그래픽 1" descr="데이터베이스 단색으로 채워진">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EF1585F-E41A-AB3B-1C35-DA0FA5E502BE}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D148CAFD-7C72-63C4-A031-1ED0BE7D9416}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -1456,7 +1451,7 @@
                 <xdr:cNvPr id="29" name="직사각형 28">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77311EF3-F2C5-4841-82CE-174029BC47B9}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD34E358-CD05-D5DC-D202-A58D14FF46F7}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -1524,10 +1519,10 @@
           </xdr:grpSp>
           <xdr:grpSp>
             <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="30" name="그룹 29">
+              <xdr:cNvPr id="17" name="그룹 16">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5EE3173-1580-BD73-E85B-E29F19A5378E}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5F09602-C687-F32F-1BF9-14E7C0D1F708}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -1543,10 +1538,10 @@
             </xdr:grpSpPr>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="2" name="직사각형 1">
+                <xdr:cNvPr id="18" name="직사각형 17">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC702587-A4E0-1E4A-31EE-5E0A13E9A3B5}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B81C140-039B-152E-41D6-C0A7447F06B1}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -1590,10 +1585,10 @@
             </xdr:sp>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="16" name="직사각형 15">
+                <xdr:cNvPr id="19" name="직사각형 18">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4FB617B-1CFB-424E-A0C7-F872088BE931}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5A724F2-9074-914D-A084-C70FBD50A8BB}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -1702,10 +1697,10 @@
             </xdr:sp>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="18" name="직사각형 17">
+                <xdr:cNvPr id="20" name="직사각형 19">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBAC3503-A69C-4ECE-8FF8-895B07BC46AE}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4AC3F8E-71B4-DA82-6058-B5AA044BB500}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -1828,10 +1823,10 @@
             </xdr:sp>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="28" name="직사각형 27">
+                <xdr:cNvPr id="21" name="직사각형 20">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A7562EF-0E71-4D65-BAA3-809084AA25BA}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{182CDF86-8B11-2A20-F650-DBED30B3C568}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -1973,16 +1968,16 @@
         </xdr:grpSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
+            <xdr:cNvPr id="10" name="직선 화살표 연결선 9">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E97F7169-B016-D6B8-93E3-11F084EF3EF2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB436890-E5CA-8B24-DC12-1EC58350FE85}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
-              <a:stCxn id="4" idx="2"/>
-              <a:endCxn id="11" idx="1"/>
+              <a:stCxn id="22" idx="2"/>
+              <a:endCxn id="24" idx="1"/>
             </xdr:cNvCxnSpPr>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -2015,16 +2010,16 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="5" name="연결선: 꺾임 4">
+            <xdr:cNvPr id="11" name="연결선: 꺾임 10">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC61D815-31D7-486B-81D8-F295CE260231}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53552278-5893-07EE-2171-E40DADB9CFEB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
-              <a:stCxn id="28" idx="2"/>
-              <a:endCxn id="3" idx="1"/>
+              <a:stCxn id="21" idx="2"/>
+              <a:endCxn id="26" idx="1"/>
             </xdr:cNvCxnSpPr>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -2060,13 +2055,13 @@
             <xdr:cNvPr id="12" name="직선 화살표 연결선 11">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{868A5416-8AF4-4E38-978F-5D92102177C3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4F5C972-8E98-B94E-1BFD-CF3FF3A5AE0C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
-              <a:stCxn id="2" idx="3"/>
-              <a:endCxn id="4" idx="1"/>
+              <a:stCxn id="18" idx="3"/>
+              <a:endCxn id="22" idx="1"/>
             </xdr:cNvCxnSpPr>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -2099,16 +2094,16 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="19" name="직선 화살표 연결선 18">
+            <xdr:cNvPr id="13" name="직선 화살표 연결선 12">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D3AA79F-3921-48CA-9FCE-A18CF91D2F99}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9A40255-9950-0DE7-1AA0-EE6A2AAD27B1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
-              <a:stCxn id="16" idx="3"/>
-              <a:endCxn id="4" idx="1"/>
+              <a:stCxn id="19" idx="3"/>
+              <a:endCxn id="22" idx="1"/>
             </xdr:cNvCxnSpPr>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -2141,16 +2136,16 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="22" name="직선 화살표 연결선 21">
+            <xdr:cNvPr id="14" name="직선 화살표 연결선 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77878E1C-601B-4A6C-8CBF-FD0C62175F77}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CFE5774-CA5E-B09A-6758-45E664096FBF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
-              <a:stCxn id="28" idx="3"/>
-              <a:endCxn id="4" idx="1"/>
+              <a:stCxn id="21" idx="3"/>
+              <a:endCxn id="22" idx="1"/>
             </xdr:cNvCxnSpPr>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -2183,16 +2178,16 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="26" name="직선 화살표 연결선 25">
+            <xdr:cNvPr id="15" name="직선 화살표 연결선 14">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{035A31BC-DC10-48A5-924E-865EBF082754}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C088F5-5F52-375E-CD1C-1E8C4D8C199C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
-              <a:stCxn id="18" idx="3"/>
-              <a:endCxn id="4" idx="1"/>
+              <a:stCxn id="20" idx="3"/>
+              <a:endCxn id="22" idx="1"/>
             </xdr:cNvCxnSpPr>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -2226,10 +2221,10 @@
       </xdr:grpSp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="14" name="그래픽 13" descr="데이터베이스 윤곽선">
+          <xdr:cNvPr id="4" name="그래픽 3" descr="데이터베이스 윤곽선">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81A73CC3-2517-0D9A-6CC0-C1922BC24216}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEE3043C-D4D5-8361-5D99-01EC930800A6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2261,10 +2256,10 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="17" name="그래픽 16" descr="데이터베이스 윤곽선">
+          <xdr:cNvPr id="5" name="그래픽 4" descr="데이터베이스 윤곽선">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C1910AB-FE40-4942-A166-772A037B3673}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB0A516-961B-CA2D-0875-B7A8A9CCDABB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2566,10 +2561,10 @@
   <dimension ref="A2:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2577,30 +2572,28 @@
     <col min="1" max="1" width="6.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.375" style="2" customWidth="1"/>
-    <col min="5" max="12" width="20.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="26.125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20.5" style="2" customWidth="1"/>
+    <col min="4" max="13" width="17.375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
@@ -2650,7 +2643,7 @@
       <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="37" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -2671,7 +2664,7 @@
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="26" t="s">
         <v>7</v>
       </c>
@@ -2751,10 +2744,10 @@
       <c r="A11" s="9">
         <v>7</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="38"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="22"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -2767,19 +2760,8 @@
       <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2790,6 +2772,22 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB28B1C-8147-4C5D-A8BA-7BA670DA171E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>